--- a/data.xlsx
+++ b/data.xlsx
@@ -72,7 +72,7 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
